--- a/target/classes/ScenarioResults.xlsx
+++ b/target/classes/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>2020-11-16 19_41_41</t>
+  </si>
+  <si>
+    <t>2020-11-16 19_43_48</t>
   </si>
 </sst>
 </file>
@@ -86,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -148,6 +151,20 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/classes/ScenarioResults.xlsx
+++ b/target/classes/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>2020-11-16 19_43_48</t>
+  </si>
+  <si>
+    <t>2020-12-12 12_05_13</t>
+  </si>
+  <si>
+    <t>2020-12-12 12_05_48</t>
   </si>
 </sst>
 </file>
@@ -89,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -165,6 +171,34 @@
         <v>3</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/classes/ScenarioResults.xlsx
+++ b/target/classes/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>2020-12-12 12_05_48</t>
+  </si>
+  <si>
+    <t>country-functionality;create-country</t>
+  </si>
+  <si>
+    <t>2020-12-28 21_11_50</t>
+  </si>
+  <si>
+    <t>2020-12-29 13_05_31</t>
+  </si>
+  <si>
+    <t>2020-12-29 14_35_41</t>
   </si>
 </sst>
 </file>
@@ -95,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -199,6 +211,48 @@
         <v>3</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/target/classes/ScenarioResults.xlsx
+++ b/target/classes/ScenarioResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="21">
   <si>
     <t>login-functionality;login-with-valid-username-and-password</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>2020-12-29 14_35_41</t>
+  </si>
+  <si>
+    <t>2020-12-29 15_14_09</t>
+  </si>
+  <si>
+    <t>2020-12-29 15_14_25</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>2020-12-29 15_15_16</t>
   </si>
 </sst>
 </file>
@@ -107,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -253,6 +265,62 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
